--- a/testFile/case_data/case_guest.xlsx
+++ b/testFile/case_data/case_guest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\Projects\pythonProjects\interfaceTest\testFile\case_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD9F3A5-93C1-45AB-8D37-8601ABFF5405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A684A-8FA3-471A-8187-0889496ED55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="612" windowWidth="19080" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>case_name</t>
   </si>
@@ -131,9 +131,6 @@
     <t>{"url":"http://127.0.0.1:8081/event/1/","name":"锤子手机发布会","address":"北京会展中心","start_time":"2017-02-11T13:22:00Z","limit":2000,"status":true}</t>
   </si>
   <si>
-    <t>{"detail":"Not found."}</t>
-  </si>
-  <si>
     <t>所属模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -186,14 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"eid": "1", "phone": "18321110101"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE guest.sign_guest SET sign=0 WHERE event_id=1 AND phone='18321110101'; </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>该发布会eid 1 暂不可用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,6 +204,30 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid":"1", "phone":"18321110101"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE guest.sign_guest SET sign=0 WHERE event_id=5 AND phone='18612345678'; </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_sign_eid_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 10023, "message": "该发布会eid 1 暂不可用"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid":"5", "phone":"18612345678"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 10024, "message": "该 华为手机发布会 已开始，无法参加"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +321,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -612,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -655,18 +671,18 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
@@ -684,20 +700,20 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -706,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -715,18 +731,18 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -744,20 +760,20 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>11</v>
@@ -766,7 +782,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -775,33 +791,64 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="4" t="s">
-        <v>36</v>
+      <c r="J7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case_data/case_guest.xlsx
+++ b/testFile/case_data/case_guest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\Projects\pythonProjects\interfaceTest\testFile\case_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A684A-8FA3-471A-8187-0889496ED55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209170E-EB41-4AF8-B5E1-ACDBE3EBB529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="612" windowWidth="19080" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1728" yWindow="288" windowWidth="19080" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>case_name</t>
   </si>
@@ -101,33 +101,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"url":"http://127.0.0.1:8081/users/1/"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>success</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"url":"http://127.0.0.1:8081/users/1/","username":"admin","email":"admin@mail.com","groups":[]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"detail":"Not found."}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"detail":"Authentication credentials were not provided."}</t>
-  </si>
-  <si>
     <t>{"url":"http://127.0.0.1:8081/event/1/","name":"锤子手机发布会","address":"北京会展中心","start_time":"2017-02-11T13:22:00Z","limit":2000,"status":true}</t>
   </si>
   <si>
@@ -203,31 +188,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>{"eid":"1", "phone":"18321110101"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 10023, "message": "该发布会eid 1 暂不可用"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid":"5", "phone":"18612345678"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "嘉宾 二叔 签到成功"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_sign_eid_disabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE guest.sign_guest SET sign=0 WHERE event_id=5 AND phone='18612345678'; </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_guest_ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_event_ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid": "11", "name": "", "limit": "", "status": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有参数不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid": "11", "name": "包子烧卖我喜欢", "limit": "1000", "status": "", "address", "哪里都有", "start_time": "2020-01-01 12:12:12"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布会添加成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM guest.sign_event where id="11";</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid": "33", "realname": "不三不四", "phone": "15622334455", "email": "n3n4@mail.com"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾参加的发布会不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加嘉宾成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid": "12", "realname": "不三不四", "phone": "15622334455", "email": "n3n4@mail.com"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM guest.sign_guest where event_id='12' and phone='15622334455';DELETE FROM guest.sign_event where id="12";</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 10021, "message": "所有参数不能为空！"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"eid":"1", "phone":"18321110101"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE guest.sign_guest SET sign=0 WHERE event_id=5 AND phone='18612345678'; </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_sign_eid_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status": 10023, "message": "该发布会eid 1 暂不可用"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eid":"5", "phone":"18612345678"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status": 10024, "message": "该 华为手机发布会 已开始，无法参加"}</t>
+    <t>INSERT INTO `guest`.`sign_event`(`id`, `name`, `limit`, `status`, `address`, `start_time`) VALUES (12, '大烧卖发布会', 500, 1, '早餐基地', '2024-07-21 04:48:12');</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 10022, "message": "嘉宾参加的发布会不存在"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "添加嘉宾成功"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +320,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,14 +375,27 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -616,22 +688,22 @@
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
     <col min="8" max="8" width="7.21875" customWidth="1"/>
     <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="25.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -670,184 +742,252 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="I5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>45</v>
+      <c r="J7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/testFile/case_data/case_guest.xlsx
+++ b/testFile/case_data/case_guest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\Projects\pythonProjects\interfaceTest\testFile\case_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209170E-EB41-4AF8-B5E1-ACDBE3EBB529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610E036B-B0D9-495C-811E-F10709AAF15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1728" yWindow="288" windowWidth="19080" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="408" windowWidth="20868" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>case_name</t>
   </si>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>is_run</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,13 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"detail":"Not found."}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"http://127.0.0.1:8081/event/1/","name":"锤子手机发布会","address":"北京会展中心","start_time":"2017-02-11T13:22:00Z","limit":2000,"status":true}</t>
-  </si>
-  <si>
     <t>所属模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,83 +193,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_user_sign_eid_disabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE guest.sign_guest SET sign=0 WHERE event_id=5 AND phone='18612345678'; </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_guest_ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_event_ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有参数不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布会添加成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM guest.sign_event where id="11";</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid": "33", "realname": "不三不四", "phone": "15622334455", "email": "n3n4@mail.com"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾参加的发布会不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加嘉宾成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid": "12", "realname": "不三不四", "phone": "15622334455", "email": "n3n4@mail.com"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM guest.sign_guest where event_id='12' and phone='15622334455';DELETE FROM guest.sign_event where id="12";</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 10021, "message": "所有参数不能为空！"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO `guest`.`sign_event`(`id`, `name`, `limit`, `status`, `address`, `start_time`) VALUES (12, '大烧卖发布会', 500, 1, '早餐基地', '2024-07-21 04:48:12');</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 10022, "message": "嘉宾参加的发布会不存在"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "添加嘉宾成功"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "该eid 3 查询发布会成功", "data": {"name": "红米11Pro手机", "limit": 1000, "status": true, "address": "北京鸟巢", "start_time": "2022-07-06T18:23:05Z"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eid": "11", "name": "包子烧卖我喜欢", "limit": "1000", "status": "", "address": "哪里都有", "start_time": "2020-01-01 12:12:12"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "eid查询嘉宾成功", "data": [{"eid": "4", "realname": "大叔", "phone": "12345678900", "email": "dashu@mail.com", "sign": false, "create_time": "2022-07-08T10:43:46.029Z"}, {"eid": "4", "realname": "王五", "phone": "17712345678", "email": "wangwu@mail.com", "sign": true, "create_time": "2022-07-06T19:28:59.056Z"}, {"eid": "4", "realname": "小二", "phone": "19712345678", "email": "xiaoer@mail.com", "sign": false, "create_time": "2022-07-08T10:41:16.086Z"}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "eid为 11 的发布会添加成功"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{"status": 200, "message": "嘉宾 二叔 签到成功"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_user_sign_eid_disabled</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE guest.sign_guest SET sign=0 WHERE event_id=5 AND phone='18612345678'; </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_add_guest_ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_add_event_ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"eid": "11", "name": "", "limit": "", "status": ""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有参数不能为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eid": "11", "name": "包子烧卖我喜欢", "limit": "1000", "status": "", "address", "哪里都有", "start_time": "2020-01-01 12:12:12"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布会添加成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE FROM guest.sign_event where id="11";</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eid": "33", "realname": "不三不四", "phone": "15622334455", "email": "n3n4@mail.com"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉宾参加的发布会不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加嘉宾成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eid": "12", "realname": "不三不四", "phone": "15622334455", "email": "n3n4@mail.com"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE FROM guest.sign_guest where event_id='12' and phone='15622334455';DELETE FROM guest.sign_event where id="12";</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status": 10021, "message": "所有参数不能为空！"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO `guest`.`sign_event`(`id`, `name`, `limit`, `status`, `address`, `start_time`) VALUES (12, '大烧卖发布会', 500, 1, '早餐基地', '2024-07-21 04:48:12');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status": 10022, "message": "嘉宾参加的发布会不存在"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status": 200, "message": "添加嘉宾成功"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,6 +392,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -700,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -743,29 +743,29 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -774,89 +774,93 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -865,64 +869,64 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -931,64 +935,64 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case_data/case_guest.xlsx
+++ b/testFile/case_data/case_guest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\Projects\pythonProjects\interfaceTest\testFile\case_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610E036B-B0D9-495C-811E-F10709AAF15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9853624C-2CB3-43F3-95AC-0A52D5AB6690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="408" windowWidth="20868" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,18 +257,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"status": 200, "message": "该eid 3 查询发布会成功", "data": {"name": "红米11Pro手机", "limit": 1000, "status": true, "address": "北京鸟巢", "start_time": "2022-07-06T18:23:05Z"}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"eid": "11", "name": "包子烧卖我喜欢", "limit": "1000", "status": "", "address": "哪里都有", "start_time": "2020-01-01 12:12:12"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"status": 200, "message": "eid查询嘉宾成功", "data": [{"eid": "4", "realname": "大叔", "phone": "12345678900", "email": "dashu@mail.com", "sign": false, "create_time": "2022-07-08T10:43:46.029Z"}, {"eid": "4", "realname": "王五", "phone": "17712345678", "email": "wangwu@mail.com", "sign": true, "create_time": "2022-07-06T19:28:59.056Z"}, {"eid": "4", "realname": "小二", "phone": "19712345678", "email": "xiaoer@mail.com", "sign": false, "create_time": "2022-07-08T10:41:16.086Z"}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"status": 200, "message": "eid为 11 的发布会添加成功"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,6 +270,14 @@
   </si>
   <si>
     <t>{"eid": "11", "name": "", "limit": "", "status": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "该eid 3 查询发布会成功", "data": {"name": "红米11Pro手机", "limit": 1000, "status": true, "address": "北京鸟巢", "start_time": "2022-07-06T18:23:05"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "eid查询嘉宾成功", "data": [{"eid": "4", "realname": "大叔", "phone": "12345678900", "email": "dashu@mail.com", "sign": false, "create_time": "2022-07-08T10:43:46.029"}, {"eid": "4", "realname": "王五", "phone": "17712345678", "email": "wangwu@mail.com", "sign": true, "create_time": "2022-07-06T19:28:59.056"}, {"eid": "4", "realname": "小二", "phone": "19712345678", "email": "xiaoer@mail.com", "sign": false, "create_time": "2022-07-08T10:41:16.086"}]}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -784,7 +784,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -793,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>41</v>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>31</v>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>28</v>
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>35</v>

--- a/testFile/case_data/case_guest.xlsx
+++ b/testFile/case_data/case_guest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\Projects\pythonProjects\interfaceTest\testFile\case_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9853624C-2CB3-43F3-95AC-0A52D5AB6690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C4CA79-F338-4B3F-9DAC-AE02275DB440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="408" windowWidth="20868" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
